--- a/Bitacora de activiades contabilidad pasada nro3.xlsx
+++ b/Bitacora de activiades contabilidad pasada nro3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01792D0C-941A-42C4-9B58-253AE23C24A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="123">
   <si>
     <t>Nro</t>
   </si>
@@ -372,12 +373,30 @@
   </si>
   <si>
     <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>clsTipoPlan</t>
+  </si>
+  <si>
+    <t>preguntar si la tabla sera poblada desde BD</t>
+  </si>
+  <si>
+    <t>ctbTipoPlan</t>
+  </si>
+  <si>
+    <t>clsTipoPLanVM</t>
+  </si>
+  <si>
+    <t>Variables static</t>
+  </si>
+  <si>
+    <t>se pobla desde BD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,15 +563,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,11 +581,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -587,16 +618,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -689,6 +710,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -724,6 +762,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,15 +954,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,14 +1938,68 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="4">
+        <v>43266</v>
+      </c>
+      <c r="H30" s="4">
+        <v>43266</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43266</v>
+      </c>
+      <c r="H31" s="4">
+        <v>43266</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3370,6 +3479,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C7E5F826-5049-4106-95C8-BF4F1FB06DEB}">
+            <xm:f>'Valores columnas'!$I$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{80E41AE6-0BBD-44D4-BDBE-78982EED740E}">
             <xm:f>'Valores columnas'!$I$2</xm:f>
             <x14:dxf>
@@ -3383,38 +3505,25 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C7E5F826-5049-4106-95C8-BF4F1FB06DEB}">
-            <xm:f>'Valores columnas'!$I$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Valores columnas'!$A$2:$A$5</xm:f>
           </x14:formula1>
           <xm:sqref>I19:I1048576 I1:I17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Valores columnas'!$G$2:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>B19:B1048576 B1:B17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Valores columnas'!$I$2:$I$4</xm:f>
           </x14:formula1>
@@ -3427,489 +3536,574 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="3" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" style="18"/>
-    <col min="6" max="6" width="17" style="19" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="19"/>
-    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="6" width="17" style="16" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="16"/>
+    <col min="10" max="10" width="11.42578125" style="18"/>
+    <col min="11" max="11" width="18.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="J8" s="1" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3921,13 +4115,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B1:E1048576</xm:sqref>
+          <xm:sqref>B1:E1048576 J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -3940,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,7 +4174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4033,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Bitacora de activiades contabilidad pasada nro3.xlsx
+++ b/Bitacora de activiades contabilidad pasada nro3.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01792D0C-941A-42C4-9B58-253AE23C24A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E549C28-6BAF-48E8-BDCD-33EE3962DEFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
-    <sheet name="VM" sheetId="6" r:id="rId2"/>
-    <sheet name="Tablas Observadas" sheetId="4" r:id="rId3"/>
-    <sheet name="SP Observados" sheetId="5" r:id="rId4"/>
-    <sheet name="Valores columnas" sheetId="2" r:id="rId5"/>
+    <sheet name="DAC" sheetId="7" r:id="rId2"/>
+    <sheet name="VM" sheetId="6" r:id="rId3"/>
+    <sheet name="Tablas Observadas" sheetId="4" r:id="rId4"/>
+    <sheet name="SP Observados" sheetId="5" r:id="rId5"/>
+    <sheet name="Valores columnas" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Historico!$A$1:$L$325</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
   <si>
     <t>Nro</t>
   </si>
@@ -391,6 +392,54 @@
   </si>
   <si>
     <t>se pobla desde BD</t>
+  </si>
+  <si>
+    <t>DAC del proyecto de Contabilidad</t>
+  </si>
+  <si>
+    <t>Instancia del VM</t>
+  </si>
+  <si>
+    <t>clsAplicacion</t>
+  </si>
+  <si>
+    <t>clsAppInfo</t>
+  </si>
+  <si>
+    <t>no tiene instancia hacia su VM, pero no lo modifique porque pertence al modulo de seguridad</t>
+  </si>
+  <si>
+    <t>cls Autoriza</t>
+  </si>
+  <si>
+    <t>cls Capitulo</t>
+  </si>
+  <si>
+    <t>Select armado en string</t>
+  </si>
+  <si>
+    <t>clsEstado</t>
+  </si>
+  <si>
+    <t>adaptar DAC agregando instancia de de su respectiva VM, armar query de consultas para ejecutar el SP</t>
+  </si>
+  <si>
+    <t>clsPlanGRupo</t>
+  </si>
+  <si>
+    <t>clsPLanGRupoDet</t>
+  </si>
+  <si>
+    <t>clsREgTipoPersona</t>
+  </si>
+  <si>
+    <t>clsSucurcal</t>
+  </si>
+  <si>
+    <t>clsTipoUsuario</t>
+  </si>
+  <si>
+    <t>clsUsuario</t>
   </si>
 </sst>
 </file>
@@ -414,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -582,6 +637,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,8 +1031,8 @@
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,87 +2072,330 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H32" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43266</v>
+      </c>
+      <c r="H33" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H34" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H35" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H36" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H37" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H38" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H39" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H40" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3473,6 +3786,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L325" xr:uid="{B6AB7B35-AB30-49EF-9FCA-9B5D5B975CFC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
@@ -3536,10 +3850,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D38D3-D356-407E-A245-1B6A4C8AC45F}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.28515625" style="3"/>
+    <col min="3" max="3" width="19.28515625" style="22"/>
+    <col min="4" max="16384" width="19.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{F74EDB67-7A9E-426E-9881-89340DF28EEB}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{F61DF83C-7031-4B9A-9640-7AC7F13389F3}">
+          <x14:formula1>
+            <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576 C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
@@ -3559,18 +4149,18 @@
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
@@ -4133,7 +4723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4173,7 +4763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4226,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>

--- a/Bitacora de activiades contabilidad pasada nro3.xlsx
+++ b/Bitacora de activiades contabilidad pasada nro3.xlsx
@@ -3,17 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E549C28-6BAF-48E8-BDCD-33EE3962DEFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EFB485C9-9668-46C9-8490-9DFF3ACE1FEE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
-    <sheet name="DAC" sheetId="7" r:id="rId2"/>
-    <sheet name="VM" sheetId="6" r:id="rId3"/>
-    <sheet name="Tablas Observadas" sheetId="4" r:id="rId4"/>
-    <sheet name="SP Observados" sheetId="5" r:id="rId5"/>
-    <sheet name="Valores columnas" sheetId="2" r:id="rId6"/>
+    <sheet name="Controller" sheetId="9" r:id="rId2"/>
+    <sheet name="Modules" sheetId="8" r:id="rId3"/>
+    <sheet name="DAC" sheetId="7" r:id="rId4"/>
+    <sheet name="VM" sheetId="6" r:id="rId5"/>
+    <sheet name="Tablas Observadas" sheetId="4" r:id="rId6"/>
+    <sheet name="SP Observados" sheetId="5" r:id="rId7"/>
+    <sheet name="Valores columnas" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Historico!$A$1:$L$325</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="162">
   <si>
     <t>Nro</t>
   </si>
@@ -440,6 +442,75 @@
   </si>
   <si>
     <t>clsUsuario</t>
+  </si>
+  <si>
+    <t>In Memory</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>adaptamos los campos de la DAC</t>
+  </si>
+  <si>
+    <t>adaptamos a los campos del VM de su correspondiente DAC</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>CenCos</t>
+  </si>
+  <si>
+    <t>CencosGrupo</t>
+  </si>
+  <si>
+    <t>use las variables static</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>CenCosGrupo</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>LoadData</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>No se uso variable static ya que pertenece al modulo de seguridad</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>use las variables static y campos de la instancia VM</t>
+  </si>
+  <si>
+    <t>usamos variables static y accedimos a los campos de la VM</t>
+  </si>
+  <si>
+    <t>PlanGrupo</t>
+  </si>
+  <si>
+    <t>usamos variables static , accedimos a los campos de la VM y eliminamos la linea que ya hace el metodo setPrimaryKey()</t>
+  </si>
+  <si>
+    <t>RegTipoPersona</t>
+  </si>
+  <si>
+    <t>RegTipoPErsona</t>
+  </si>
+  <si>
+    <t>SessionExpireFilterAttribute</t>
   </si>
 </sst>
 </file>
@@ -583,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,6 +725,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,6 +738,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,9 +1107,9 @@
   </sheetPr>
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,34 +2437,196 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H41" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H42" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H43" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H44" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H45" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="4">
+        <v>43267</v>
+      </c>
+      <c r="H46" s="4">
+        <v>43267</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3850,10 +4089,185 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9C1F9-AD60-43E6-BEEC-DD7A72374CCE}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16.5703125" style="3"/>
+    <col min="3" max="16384" width="16.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{09A29418-EAD6-4886-B63D-9062243D43AA}">
+          <x14:formula1>
+            <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B499A-6476-485A-9E96-1EB20ADCBFA7}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D38D3-D356-407E-A245-1B6A4C8AC45F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4125,7 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -4149,18 +4563,18 @@
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
@@ -4723,7 +5137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4763,7 +5177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -4816,7 +5230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>

--- a/Bitacora de activiades contabilidad pasada nro3.xlsx
+++ b/Bitacora de activiades contabilidad pasada nro3.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EFB485C9-9668-46C9-8490-9DFF3ACE1FEE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5C27E0F-7920-4A69-AAF1-E39A180B1011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
-    <sheet name="Controller" sheetId="9" r:id="rId2"/>
-    <sheet name="Modules" sheetId="8" r:id="rId3"/>
-    <sheet name="DAC" sheetId="7" r:id="rId4"/>
-    <sheet name="VM" sheetId="6" r:id="rId5"/>
-    <sheet name="Tablas Observadas" sheetId="4" r:id="rId6"/>
-    <sheet name="SP Observados" sheetId="5" r:id="rId7"/>
-    <sheet name="Valores columnas" sheetId="2" r:id="rId8"/>
+    <sheet name="View" sheetId="10" r:id="rId2"/>
+    <sheet name="Controller" sheetId="9" r:id="rId3"/>
+    <sheet name="Modules" sheetId="8" r:id="rId4"/>
+    <sheet name="DAC" sheetId="7" r:id="rId5"/>
+    <sheet name="VM" sheetId="6" r:id="rId6"/>
+    <sheet name="Tablas Observadas" sheetId="4" r:id="rId7"/>
+    <sheet name="SP Observados" sheetId="5" r:id="rId8"/>
+    <sheet name="Valores columnas" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Historico!$A$1:$L$325</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="183">
   <si>
     <t>Nro</t>
   </si>
@@ -511,6 +512,69 @@
   </si>
   <si>
     <t>SessionExpireFilterAttribute</t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Otras Vistas del Controller</t>
+  </si>
+  <si>
+    <t>PopPup</t>
+  </si>
+  <si>
+    <t>No se modifico nada</t>
+  </si>
+  <si>
+    <t>hicismos que pueda acceder a la lista de detalle</t>
+  </si>
+  <si>
+    <t>CreateCtaCobrar</t>
+  </si>
+  <si>
+    <t>use las variables static y campos de la instancia VM, adaptamos cambios proveniente de clsPlanGrupoForm</t>
+  </si>
+  <si>
+    <t>agregamos algunos data notation y elimnamos otros para que funcione clsPlanGrupoForm</t>
+  </si>
+  <si>
+    <t>clsPlanGrupoformVM</t>
+  </si>
+  <si>
+    <t>creamos una instancia hacia clsPlanGRupoVM</t>
+  </si>
+  <si>
+    <t>creamos instancia hacia clsPlanGrupoform</t>
+  </si>
+  <si>
+    <t>CreateCtaCobrar, CreateCtaCteDeudor,EditCtaCteDeudor</t>
+  </si>
+  <si>
+    <t>asignamos las instancia del VM</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Revisar en la Hoja de View</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>modificamos el data load para que obtenga  desde el metodo del controller</t>
   </si>
 </sst>
 </file>
@@ -534,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +650,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -728,6 +798,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,7 +816,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,14 +1187,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1200,7 +1285,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1235,7 +1320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1270,7 +1355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1305,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1340,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1375,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1410,7 +1495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1442,7 +1527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1474,7 +1559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1506,7 +1591,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1538,7 +1623,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1570,7 +1655,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1605,7 +1690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1637,7 +1722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1669,7 +1754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1701,7 +1786,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1733,7 +1818,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1765,7 +1850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1797,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1829,7 +1914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1861,7 +1946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1893,7 +1978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1925,7 +2010,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1957,7 +2042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1989,7 +2074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2021,7 +2106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2053,7 +2138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2085,7 +2170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2117,7 +2202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2149,7 +2234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2181,7 +2266,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2213,7 +2298,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2245,7 +2330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2277,7 +2362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2309,7 +2394,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2341,7 +2426,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2373,7 +2458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2405,7 +2490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2437,7 +2522,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2629,1403 +2714,1464 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="B47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="4">
+        <v>43268</v>
+      </c>
+      <c r="H47" s="4">
+        <v>43268</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="34">
+        <v>43268</v>
+      </c>
+      <c r="H48" s="34">
+        <v>43268</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="32"/>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L325" xr:uid="{B6AB7B35-AB30-49EF-9FCA-9B5D5B975CFC}"/>
+  <autoFilter ref="A1:L325" xr:uid="{B6AB7B35-AB30-49EF-9FCA-9B5D5B975CFC}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Controller"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
@@ -4089,11 +4235,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3045448D-7451-4515-8E60-B8BD5DCAFF12}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C7:D7" xr:uid="{DE67B87F-2A6F-4B4F-8C41-10ED84ABAB55}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E9EB258-E57B-419E-97BE-5B060BA2F25A}">
+          <x14:formula1>
+            <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:F6 B8:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9C1F9-AD60-43E6-BEEC-DD7A72374CCE}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,12 +4452,15 @@
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4169,7 +4516,7 @@
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4184,7 +4531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>157</v>
       </c>
@@ -4192,7 +4539,7 @@
         <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4231,7 +4578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B499A-6476-485A-9E96-1EB20ADCBFA7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4263,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D38D3-D356-407E-A245-1B6A4C8AC45F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -4539,13 +4886,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,18 +4910,18 @@
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
@@ -4862,7 +5209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
@@ -4892,6 +5239,9 @@
       </c>
       <c r="J12" s="18" t="s">
         <v>55</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5108,6 +5458,14 @@
       </c>
       <c r="K19" s="1" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +5495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -5177,7 +5535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5230,7 +5588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>

--- a/Bitacora de activiades contabilidad pasada nro3.xlsx
+++ b/Bitacora de activiades contabilidad pasada nro3.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5C27E0F-7920-4A69-AAF1-E39A180B1011}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Historico" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="189">
   <si>
     <t>Nro</t>
   </si>
@@ -575,12 +574,30 @@
   </si>
   <si>
     <t>modificamos el data load para que obtenga  desde el metodo del controller</t>
+  </si>
+  <si>
+    <t>clsLogin</t>
+  </si>
+  <si>
+    <t>usamos variables static</t>
+  </si>
+  <si>
+    <t>cambiamos en la clases ConsEstado: activo = 1, inactivo = 2</t>
+  </si>
+  <si>
+    <t>cambiamos todos id de EstadoId de todas las tablas, activo = 1, inactivo =2</t>
+  </si>
+  <si>
+    <t>actualizamos el campo aplicacionId = 0, de la tabla Estado</t>
+  </si>
+  <si>
+    <t>Modifique la Clase ConsEstado (esta al final del archivo), valores Activo = 1, Inactivo = 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,9 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -802,6 +822,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,23 +851,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -942,23 +1011,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -994,23 +1046,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1186,15 +1221,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1320,7 +1355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1355,7 +1390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1390,7 +1425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1425,7 +1460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1460,7 +1495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1495,7 +1530,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1527,7 +1562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1559,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1591,7 +1626,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1655,7 +1690,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1690,7 +1725,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1722,7 +1757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1786,7 +1821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1818,7 +1853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1850,7 +1885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1914,7 +1949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1946,7 +1981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2010,7 +2045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2074,7 +2109,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2138,7 +2173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2170,7 +2205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2202,7 +2237,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2234,7 +2269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2266,7 +2301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2298,7 +2333,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2426,7 +2461,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2458,7 +2493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2490,7 +2525,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2522,7 +2557,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2714,7 +2749,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2746,1439 +2781,1549 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
         <v>47</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="28">
         <v>43268</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="28">
         <v>43268</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="32"/>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="4">
+        <v>43269</v>
+      </c>
+      <c r="H49" s="4">
+        <v>43269</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="4">
+        <v>43269</v>
+      </c>
+      <c r="H50" s="4">
+        <v>43269</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="4">
+        <v>43269</v>
+      </c>
+      <c r="H51" s="4">
+        <v>43269</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="29"/>
+      <c r="G52" s="4">
+        <v>43269</v>
+      </c>
+      <c r="H52" s="4">
+        <v>43269</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4">
+        <v>43269</v>
+      </c>
+      <c r="H53" s="4">
+        <v>43269</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L325" xr:uid="{B6AB7B35-AB30-49EF-9FCA-9B5D5B975CFC}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Controller"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L325"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{C7E5F826-5049-4106-95C8-BF4F1FB06DEB}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C7E5F826-5049-4106-95C8-BF4F1FB06DEB}">
             <xm:f>'Valores columnas'!$I$3</xm:f>
             <x14:dxf>
               <font>
@@ -4191,7 +4336,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{80E41AE6-0BBD-44D4-BDBE-78982EED740E}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{80E41AE6-0BBD-44D4-BDBE-78982EED740E}">
             <xm:f>'Valores columnas'!$I$2</xm:f>
             <x14:dxf>
               <font>
@@ -4204,25 +4349,54 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D51 D53:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{50297031-7136-4EAB-83EB-AB6F49178583}">
+            <xm:f>'Valores columnas'!$I$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{F0EF94AC-B8BA-4954-B196-F963D476AA3D}">
+            <xm:f>'Valores columnas'!$I$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I19:I1048576 I1:I17</xm:sqref>
+          <xm:sqref>I1:I17 I19:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B19:B1048576 B1:B17</xm:sqref>
+          <xm:sqref>B1:B17 B19:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$I$2:$I$4</xm:f>
           </x14:formula1>
@@ -4235,11 +4409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3045448D-7451-4515-8E60-B8BD5DCAFF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,28 +4428,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4358,10 +4532,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4370,10 +4544,10 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -4384,16 +4558,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -4414,13 +4588,13 @@
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C7:D7" xr:uid="{DE67B87F-2A6F-4B4F-8C41-10ED84ABAB55}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C7:D7"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7E9EB258-E57B-419E-97BE-5B060BA2F25A}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -4433,10 +4607,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A9C1F9-AD60-43E6-BEEC-DD7A72374CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4447,10 +4621,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4516,7 +4690,7 @@
       <c r="B8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4566,7 +4740,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{09A29418-EAD6-4886-B63D-9062243D43AA}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -4579,7 +4753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1B499A-6476-485A-9E96-1EB20ADCBFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4611,11 +4785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D38D3-D356-407E-A245-1B6A4C8AC45F}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4799,7 @@
     <col min="4" max="16384" width="19.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>123</v>
       </c>
@@ -4636,7 +4810,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>125</v>
       </c>
@@ -4647,17 +4821,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
@@ -4668,7 +4845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>129</v>
       </c>
@@ -4679,7 +4856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
@@ -4690,7 +4867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -4701,7 +4878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -4712,7 +4889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -4723,7 +4900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -4734,7 +4911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
@@ -4745,7 +4922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>83</v>
       </c>
@@ -4756,7 +4933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>89</v>
       </c>
@@ -4767,7 +4944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>85</v>
       </c>
@@ -4778,7 +4955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
@@ -4789,7 +4966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
@@ -4868,13 +5045,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{F74EDB67-7A9E-426E-9881-89340DF28EEB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{F61DF83C-7031-4B9A-9640-7AC7F13389F3}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -4887,12 +5064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,18 +5087,18 @@
       <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="12" t="s">
         <v>121</v>
       </c>
@@ -5466,6 +5643,38 @@
       </c>
       <c r="K20" s="1" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5477,13 +5686,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>B1:E1048576 J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Valores columnas'!$C$2:$C$3</xm:f>
           </x14:formula1>
@@ -5496,7 +5705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5536,7 +5745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5589,7 +5798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
